--- a/Problem 1 - Data/pop.xlsx
+++ b/Problem 1 - Data/pop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjribeiro/Documents/courses/AE4423 Airline Planning &amp; Optimisation/2025/Assignment1/Problem 1/Data/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thijm\OneDrive\Documents\MSc Aerospace Engineering\Airline Planning &amp; Optimisation\ASSIGNMENT 1\Airline_planning\Problem 1 - Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647F8E55-735F-B745-B816-B1802C9864A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C1DDAE-33E5-4E2D-AE09-C70FAC8D2530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{0DAFC0D1-5A44-4F45-A424-CD7C4B7C4E82}"/>
+    <workbookView xWindow="1545" yWindow="3300" windowWidth="11490" windowHeight="7695" xr2:uid="{0DAFC0D1-5A44-4F45-A424-CD7C4B7C4E82}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>PRT</t>
   </si>
@@ -150,6 +150,78 @@
   </si>
   <si>
     <t>Population data per city</t>
+  </si>
+  <si>
+    <t>Population 2021</t>
+  </si>
+  <si>
+    <t>Population 2024</t>
+  </si>
+  <si>
+    <t>GDP 2021</t>
+  </si>
+  <si>
+    <t>GDP 2024</t>
+  </si>
+  <si>
+    <t>EGLL</t>
+  </si>
+  <si>
+    <t>LFPG</t>
+  </si>
+  <si>
+    <t>EHAM</t>
+  </si>
+  <si>
+    <t>EDDF</t>
+  </si>
+  <si>
+    <t>LEMF</t>
+  </si>
+  <si>
+    <t>LEBL</t>
+  </si>
+  <si>
+    <t>EDDM</t>
+  </si>
+  <si>
+    <t>LIRF</t>
+  </si>
+  <si>
+    <t>EIDW</t>
+  </si>
+  <si>
+    <t>ESSA</t>
+  </si>
+  <si>
+    <t>LPPT</t>
+  </si>
+  <si>
+    <t>EDDT</t>
+  </si>
+  <si>
+    <t>EFHK</t>
+  </si>
+  <si>
+    <t>EPWA</t>
+  </si>
+  <si>
+    <t>EGPH</t>
+  </si>
+  <si>
+    <t>LROP</t>
+  </si>
+  <si>
+    <t>LGIR</t>
+  </si>
+  <si>
+    <t>BIKF</t>
+  </si>
+  <si>
+    <t>LICJ</t>
+  </si>
+  <si>
+    <t>LPMA</t>
   </si>
 </sst>
 </file>
@@ -527,512 +599,572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C371722-C253-F64E-A441-E695C2DE07D4}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2024</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>8799800</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>8950000</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>46600</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>51500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>2175000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>2165000</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>40500</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>45500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>872680</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>903000</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>52000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>55000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>763380</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>779000</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>50000</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>54000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>3334730</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>3350000</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>30000</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>34000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>1620343</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>1635000</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>30000</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>34000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>1488202</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>1507000</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>50000</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>54000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>2849905</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>2860000</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>35000</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>38000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>554554</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>582000</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>94000</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>120000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>975551</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>1020000</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>54000</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>56000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>506654</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>515000</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>23000</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>26000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>3769495</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>3800000</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>50000</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>54000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>657675</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>670000</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>48000</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>50000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>1769529</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>1790000</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>17700</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>21000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>537000</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>550000</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>46600</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>51500</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>1716961</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>1730000</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>14000</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>17000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>140730</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>142000</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>19500</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>23000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>131136</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>135000</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>57000</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>60000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="1">
         <v>650792</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>645000</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>35000</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>38000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="1">
         <v>104000</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>105000</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>23000</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>26000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
